--- a/translations.xlsx
+++ b/translations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="464">
   <si>
     <t>RM660多语言</t>
   </si>
@@ -508,10 +508,6 @@
   </si>
   <si>
     <t>Réveillez-vous</t>
-  </si>
-  <si>
-    <t>Aurore</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Revigorant</t>
@@ -827,10 +823,6 @@
   </si>
   <si>
     <t>Energetica</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aurora</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -850,7 +842,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -867,7 +858,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -922,7 +912,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -945,7 +934,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1294,7 +1282,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1317,7 +1304,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1340,7 +1326,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1371,7 +1356,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1388,7 +1372,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1415,7 +1398,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1438,7 +1420,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1455,7 +1436,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1479,7 +1459,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1529,7 +1508,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1552,7 +1530,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1575,7 +1552,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1606,7 +1582,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1633,7 +1608,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1660,7 +1634,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1926,6 +1899,18 @@
   </si>
   <si>
     <t>Fan speed</t>
+  </si>
+  <si>
+    <t>Aurora1</t>
+  </si>
+  <si>
+    <t>Aurora2</t>
+  </si>
+  <si>
+    <t>Aurore3</t>
+  </si>
+  <si>
+    <t>Aurora4</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2184,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2263,16 +2248,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2292,6 +2271,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3451,7 +3433,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="19.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3465,15 +3447,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3498,17 +3480,17 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>258</v>
+      <c r="B3" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>258</v>
+        <v>462</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -3518,16 +3500,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3537,16 +3519,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -3556,16 +3538,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3575,16 +3557,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -3594,16 +3576,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -3612,36 +3594,36 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>259</v>
+      <c r="B9" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="21.25" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>386</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -3650,17 +3632,17 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>265</v>
+      <c r="B11" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -3669,17 +3651,17 @@
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>266</v>
+      <c r="B12" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3688,17 +3670,17 @@
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>267</v>
+      <c r="B13" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -3707,17 +3689,17 @@
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>268</v>
+      <c r="B14" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -3726,17 +3708,17 @@
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>269</v>
+      <c r="B15" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -3745,17 +3727,17 @@
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>270</v>
+      <c r="B16" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3764,17 +3746,17 @@
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>271</v>
+      <c r="B17" s="21" t="s">
+        <v>269</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -3783,17 +3765,17 @@
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>272</v>
+      <c r="B18" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3802,17 +3784,17 @@
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>273</v>
+      <c r="B19" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -3821,17 +3803,17 @@
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>274</v>
+      <c r="B20" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -3840,17 +3822,17 @@
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>264</v>
+      <c r="B21" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -3859,17 +3841,17 @@
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>263</v>
+      <c r="B22" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -3878,36 +3860,36 @@
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>262</v>
+      <c r="B23" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>261</v>
+        <v>457</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3916,17 +3898,17 @@
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>260</v>
+      <c r="B25" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -3936,16 +3918,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>387</v>
+        <v>183</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3955,16 +3937,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>388</v>
+        <v>256</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -3974,10 +3956,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>389</v>
+        <v>184</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>97</v>
@@ -3993,10 +3975,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>390</v>
+        <v>185</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>98</v>
@@ -4012,16 +3994,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>391</v>
+        <v>186</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -4031,16 +4013,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>392</v>
+        <v>231</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -4050,9 +4032,9 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -4069,16 +4051,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>393</v>
+        <v>187</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -4088,35 +4070,35 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>394</v>
+        <v>188</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>392</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="21.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>395</v>
+        <v>233</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>393</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4126,16 +4108,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>396</v>
+        <v>189</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>394</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4145,16 +4127,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>397</v>
+        <v>190</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>395</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4164,16 +4146,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>398</v>
+        <v>235</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>396</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4183,16 +4165,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>399</v>
+        <v>191</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>397</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>108</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4202,16 +4184,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4221,16 +4203,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>400</v>
+        <v>193</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4240,16 +4222,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>401</v>
+        <v>194</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>399</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4259,16 +4241,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>402</v>
+        <v>195</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>400</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4278,16 +4260,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>403</v>
+        <v>196</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4297,16 +4279,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>404</v>
+        <v>197</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>402</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4316,16 +4298,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>405</v>
+        <v>236</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>290</v>
+      <c r="E46" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -4335,16 +4317,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>406</v>
+        <v>237</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>404</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>115</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4354,73 +4336,73 @@
         <v>45</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="21.25" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>407</v>
+        <v>238</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>405</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="21.25" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>408</v>
+        <v>239</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="21.25" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>409</v>
+        <v>240</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>407</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4430,16 +4412,16 @@
         <v>46</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>410</v>
+        <v>199</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>408</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -4449,16 +4431,16 @@
         <v>47</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>411</v>
+        <v>243</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4468,16 +4450,16 @@
         <v>48</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>412</v>
+        <v>200</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4487,16 +4469,16 @@
         <v>49</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>413</v>
+        <v>201</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -4506,16 +4488,16 @@
         <v>50</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>414</v>
+        <v>202</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4525,16 +4507,16 @@
         <v>51</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>415</v>
+        <v>203</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>413</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4544,16 +4526,16 @@
         <v>52</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>416</v>
+        <v>245</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4563,16 +4545,16 @@
         <v>53</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>417</v>
+        <v>204</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4582,16 +4564,16 @@
         <v>54</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>418</v>
+        <v>246</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -4601,16 +4583,16 @@
         <v>55</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>419</v>
+        <v>205</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>417</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -4620,16 +4602,16 @@
         <v>56</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>420</v>
+        <v>206</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -4639,16 +4621,16 @@
         <v>57</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>421</v>
+        <v>207</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -4658,16 +4640,16 @@
         <v>58</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>422</v>
+        <v>208</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>420</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -4677,16 +4659,16 @@
         <v>59</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>423</v>
+        <v>209</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -4705,7 +4687,7 @@
         <v>130</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -4715,16 +4697,16 @@
         <v>92</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>424</v>
+        <v>210</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>131</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -4734,16 +4716,16 @@
         <v>61</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>425</v>
+        <v>247</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>423</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -4753,16 +4735,16 @@
         <v>62</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>426</v>
+        <v>211</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>424</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -4772,16 +4754,16 @@
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>427</v>
+        <v>212</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>425</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -4791,16 +4773,16 @@
         <v>64</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>428</v>
+        <v>213</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>426</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -4810,16 +4792,16 @@
         <v>65</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>429</v>
+        <v>248</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -4829,16 +4811,16 @@
         <v>43</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>405</v>
+        <v>236</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>290</v>
+      <c r="E73" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -4848,16 +4830,16 @@
         <v>66</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>430</v>
+        <v>249</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>137</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -4867,16 +4849,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>431</v>
+        <v>250</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -4886,16 +4868,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>432</v>
+        <v>214</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>139</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -4905,16 +4887,16 @@
         <v>93</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>433</v>
+        <v>251</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>431</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>140</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -4924,16 +4906,16 @@
         <v>69</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>434</v>
+        <v>215</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -4943,16 +4925,16 @@
         <v>70</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>435</v>
+        <v>252</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>433</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>142</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -4964,7 +4946,7 @@
       <c r="B80" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="24" t="s">
         <v>71</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -4981,16 +4963,16 @@
         <v>72</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>436</v>
+        <v>216</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>434</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>144</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -5000,35 +4982,35 @@
         <v>73</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="21.25" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>368</v>
+        <v>253</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>366</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -5038,16 +5020,16 @@
         <v>74</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>438</v>
+        <v>218</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -5057,16 +5039,16 @@
         <v>75</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>439</v>
+        <v>219</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>146</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -5076,16 +5058,16 @@
         <v>94</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>440</v>
+        <v>254</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>147</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -5095,16 +5077,16 @@
         <v>76</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>441</v>
+        <v>220</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>439</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -5114,16 +5096,16 @@
         <v>77</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>442</v>
+        <v>221</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>440</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>149</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -5133,16 +5115,16 @@
         <v>78</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>443</v>
+        <v>222</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -5152,16 +5134,16 @@
         <v>79</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>444</v>
+        <v>223</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
@@ -5171,16 +5153,16 @@
         <v>80</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>445</v>
+        <v>224</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>152</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -5190,16 +5172,16 @@
         <v>81</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>446</v>
+        <v>211</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>444</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>332</v>
+      <c r="E92" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -5209,16 +5191,16 @@
         <v>82</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>447</v>
+        <v>225</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -5228,16 +5210,16 @@
         <v>83</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>448</v>
+        <v>255</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>446</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>155</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -5247,16 +5229,16 @@
         <v>84</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>449</v>
+        <v>226</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>447</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -5266,16 +5248,16 @@
         <v>85</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>450</v>
+        <v>227</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>157</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -5285,16 +5267,16 @@
         <v>86</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>451</v>
+        <v>228</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -5304,16 +5286,16 @@
         <v>87</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>452</v>
+        <v>229</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>450</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>159</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -5323,16 +5305,16 @@
         <v>88</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>453</v>
+        <v>230</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>451</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>291</v>
+      <c r="E99" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
